--- a/Analyses/main study - LLM/create tables, graphics G3/outputs/SAR_codes_complete.xlsx
+++ b/Analyses/main study - LLM/create tables, graphics G3/outputs/SAR_codes_complete.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="237">
   <si>
     <t>Abbrevation</t>
   </si>
@@ -251,27 +251,6 @@
     <t>73</t>
   </si>
   <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
     <t>AN</t>
   </si>
   <si>
@@ -374,10 +353,7 @@
     <t>Therapeutic Applications</t>
   </si>
   <si>
-    <t>Loss of Gestures</t>
-  </si>
-  <si>
-    <t>Emotional Understanding</t>
+    <t>Lack of Emotional Understanding</t>
   </si>
   <si>
     <t>Fear</t>
@@ -395,10 +371,7 @@
     <t>Age-Related Attitudes</t>
   </si>
   <si>
-    <t>Impersonal</t>
-  </si>
-  <si>
-    <t>Dependence</t>
+    <t>Reliance and Trust</t>
   </si>
   <si>
     <t>Emotional Dependence</t>
@@ -410,51 +383,39 @@
     <t>Unhealthy Relationships</t>
   </si>
   <si>
+    <t>Lack of Humanity</t>
+  </si>
+  <si>
     <t>Superficial Interaction</t>
   </si>
   <si>
-    <t>Lack of Humanity</t>
-  </si>
-  <si>
-    <t>Robotic Assistance</t>
-  </si>
-  <si>
-    <t>Promote Interaction</t>
+    <t>Assistance and Cognitive Support</t>
+  </si>
+  <si>
+    <t>Emotional Support and Social Interaction</t>
   </si>
   <si>
     <t>Brain Activation</t>
   </si>
   <si>
-    <t>Help with Depression</t>
-  </si>
-  <si>
-    <t>Help with Attention</t>
+    <t>Therapy Success</t>
+  </si>
+  <si>
+    <t>Target Demographic</t>
+  </si>
+  <si>
+    <t>Haptics</t>
+  </si>
+  <si>
+    <t>Patience</t>
+  </si>
+  <si>
+    <t>Dementia Care</t>
   </si>
   <si>
     <t>Resource Availability</t>
   </si>
   <si>
-    <t>Target Demographic</t>
-  </si>
-  <si>
-    <t>Haptics</t>
-  </si>
-  <si>
-    <t>Patience</t>
-  </si>
-  <si>
-    <t>Dementia Care</t>
-  </si>
-  <si>
-    <t>Autism</t>
-  </si>
-  <si>
-    <t>Companion</t>
-  </si>
-  <si>
-    <t>Therapy Success</t>
-  </si>
-  <si>
     <t>Individualized Attention</t>
   </si>
   <si>
@@ -464,7 +425,7 @@
     <t>Natural Interactions</t>
   </si>
   <si>
-    <t>Physical Harm</t>
+    <t>Potential Physical Harm</t>
   </si>
   <si>
     <t>Technical Issues</t>
@@ -479,7 +440,7 @@
     <t>Environmental Vulnerabilities</t>
   </si>
   <si>
-    <t>Efficiency</t>
+    <t>Operational Efficiency</t>
   </si>
   <si>
     <t>Reliability</t>
@@ -599,97 +560,76 @@
     <t>Captures instances where participants discuss the use of socially assistive robots in therapeutic contexts, such as aiding trauma patients or emotionally vulnerable individuals by providing support and comfort.</t>
   </si>
   <si>
-    <t>Captures instances where participants express a sense of diminished emotional connection or understanding due to the absence or reduction of physical gestures in interactions with socially assistive robots, such as hugs or placing a hand on the shoulder.</t>
-  </si>
-  <si>
-    <t>Captures instances where participants express concerns or expectations regarding a socially assistive robot's ability to understand and respond to human emotions in a meaningful way, including reacting to emotions appropriately and controlling actions based on emotional cues.</t>
-  </si>
-  <si>
-    <t>Captures instances where participants express concerns or apprehension, particularly among older individuals or dementia patients, regarding the use of socially assistive robots in Human-Robot-Interaction, highlighting potential fears associated with machine interaction.</t>
-  </si>
-  <si>
-    <t>Highlights the varying individual reactions to physical closeness in Human-Robot-Interaction, ranging from comfort to discomfort or triggers, emphasizing diverse personal preferences.</t>
+    <t>Captures instances where participants express concerns or expectations regarding a socially assistive robot's ability to understand and respond to human emotions in a meaningful way, including the ability to compensate for the lack of physical gestures or emotional cues.</t>
+  </si>
+  <si>
+    <t>Captures instances where participants express concerns or apprehension, highlighting potential fears associated with machine interaction.</t>
+  </si>
+  <si>
+    <t>Captures the varying individual reactions to physical closeness in the context of Human-Robot-Interaction, highlighting differing preferences and triggers among participants, with a focus on comfort levels and diverse personal boundaries.</t>
   </si>
   <si>
     <t>Identifies concerns related to the potential risk of loneliness stemming from the reduction of social contacts when humans are replaced by robots in socially assistive roles.</t>
   </si>
   <si>
-    <t>Denotes references to the necessity for both staff and clients to possess the necessary skills and knowledge to effectively interact with socially assistive robots in the context of perceived risks and benefits.</t>
-  </si>
-  <si>
-    <t>Captures instances where older individuals express skepticism or resistance towards adopting new technologies, particularly in the context of socially assistive robots and Human-Robot-Interaction.</t>
-  </si>
-  <si>
-    <t>Identifies instances where participants express a preference for human-like qualities in interactions with robots, highlighting a desire for more personalized and emotionally engaging experiences.</t>
-  </si>
-  <si>
-    <t>Identifies instances where participants discuss reliance on socially assistive robots for various tasks, emphasizing the nuanced perspectives on the benefits and risks of dependence, including reduced human contact and emotional impacts.</t>
-  </si>
-  <si>
-    <t>Captures instances where individuals form emotional attachments to socially assistive robots, viewing them as companions or substitutes for human relationships. This includes concerns about emotional blunting, pseudo-relationships, and potential overdependence.</t>
-  </si>
-  <si>
-    <t>Identifies instances where participants discuss the importance of possessing technical knowledge for effectively operating socially assistive robots, including managing potential communication barriers and ensuring smooth interactions.</t>
-  </si>
-  <si>
-    <t>Identifies instances where participants express concerns about forming unhealthy dynamics with socially assistive robots, potentially leading to decreased human contact and distorted emotional interactions.</t>
+    <t>Denotes references to the necessity for both staff and clients to possess the necessary skills and knowledge to effectively interact with socially assistive robots in the context of perceived negative Human-Robot-Interaction risks and benefits.</t>
+  </si>
+  <si>
+    <t>Captures instances where older individuals express skepticism or resistance towards adopting new technologies, particularly in the context of socially assistive robots and human-robot interaction.</t>
+  </si>
+  <si>
+    <t>Identifies instances where participants express reliance on socially assistive robots for various needs or tasks, highlighting the perceived benefits and risks associated with this dependence.</t>
+  </si>
+  <si>
+    <t>Identifies instances where individuals form emotional attachments to socially assistive robots, viewing them as companions or substitutes for human relationships, highlighting concerns around emotional replacement, emotional blunting, and pseudo-relationships.</t>
+  </si>
+  <si>
+    <t>Identifies instances where participants discuss the importance of possessing technical knowledge for effectively operating socially assistive robots, including addressing communication barriers to ensure smooth interactions.</t>
+  </si>
+  <si>
+    <t>Identifies instances in the data where participants express concerns or negative experiences related to the quality or dynamics of their interactions with socially assistive robots, highlighting potential risks and challenges in forming meaningful connections.</t>
   </si>
   <si>
     <t>Identifies instances where participants express concerns about the unethical practice of simulating human interaction with socially assistive robots, potentially leading to misunderstandings or misperceptions.</t>
   </si>
   <si>
-    <t>Captures concerns that interactions with robots may feel insincere or lack depth compared to human connections, raising questions about the authenticity of such engagements.</t>
-  </si>
-  <si>
-    <t>Captures instances where participants emphasize the irreplaceable value of human empathy and connection, which cannot be adequately replicated by interactions with robots.</t>
-  </si>
-  <si>
-    <t>Identifies instances where participants highlight the positive impact of socially assistive robots in assuming degrading tasks, enhancing efficiency and quality of life.</t>
-  </si>
-  <si>
-    <t>Identifies instances where socially assistive robots are seen as encouraging social interaction, particularly for introverted or lonely individuals, fostering increased engagement with others.</t>
+    <t>Captures instances where participants express a sense of loss or absence in human interactions and empathy that cannot be adequately replaced by socially assistive robots in the context of Human-Robot-Interaction, emphasizing a preference for personalized and emotionally engaging experiences.</t>
+  </si>
+  <si>
+    <t>Identifies concerns that robot interactions may feel insincere or lack depth compared to human connections.</t>
+  </si>
+  <si>
+    <t>Identifies instances where participants highlight the positive impact of socially assistive robots in assuming degrading tasks, enhancing efficiency and quality of life. Additionally, this includes their role in improving attention and supporting individuals with depression.</t>
+  </si>
+  <si>
+    <t>Identifies instances where socially assistive robots are seen as encouraging social interaction, particularly for introverted or lonely individuals, fostering increased engagement with others. This also includes their role in providing emotional support and companionship, focusing on the benefits of fostering connections and addressing social isolation.</t>
   </si>
   <si>
     <t>Identifies references to engaging in activities or practices aimed at maintaining cognitive health and function, potentially related to the perceived positive Human-Robot-Interaction of socially assistive robots.</t>
   </si>
   <si>
-    <t>Captures instances where socially assistive robots are utilized to provide support and assistance to individuals with depression in establishing routines or similar activities.</t>
-  </si>
-  <si>
-    <t>Identifies instances where participants express a desire for emotional support from socially assistive robots, including the emotional and sensory benefits of soft, life-like materials in facilitating interactions.</t>
-  </si>
-  <si>
-    <t>Identifies instances where participants discuss the need for assistance or support in improving attention and learning skills, within the context of socially assistive robots in Human-Robot Interaction research.</t>
+    <t>Identifies instances where participants express the potential benefits of socially assistive robots in supporting therapy, such as helping individuals with autism or related disorders, and fostering emotional attachment as a measure of success.</t>
+  </si>
+  <si>
+    <t>Identifies references to specific groups or populations that socially assistive robots are designed to benefit, such as socially isolated individuals or the elderly, within the context of discussing the key benefits and risks of Human-Robot-Interaction.</t>
+  </si>
+  <si>
+    <t>Captures instances where participants express appreciation for tactile interactions and the incorporation of materials like fur to enhance acceptance in Human-Robot-Interaction, highlighting the positive evaluation of lifelike features in soft, socially assistive robots.</t>
+  </si>
+  <si>
+    <t>Captures instances where individuals exhibit tolerance and understanding, particularly in contexts involving repetitive actions, such as interactions with individuals with dementia, within the realm of positive Human-Robot-Interaction with socially assistive robots.</t>
+  </si>
+  <si>
+    <t>Captures instances where individuals emphasize the importance of patience in providing care for individuals with dementia, highlighting the need for tolerance towards repetitive actions.</t>
   </si>
   <si>
     <t>Identifies instances where participants highlight the perception of socially assistive robots having abundant and unlimited resources to support individual users in the context of Human-Robot-Interaction.</t>
   </si>
   <si>
-    <t>Identifies references to specific groups or populations that socially assistive robots are designed to benefit, such as socially isolated individuals or the elderly, within the context of discussing the key benefits and risks of Human-Robot-Interaction.</t>
-  </si>
-  <si>
-    <t>Captures instances where participants express appreciation for tactile interactions and the incorporation of materials like fur to enhance acceptance in Human-Robot-Interaction, particularly highlighting positive evaluations of life-like features in soft socially assistive robots.</t>
-  </si>
-  <si>
-    <t>Captures instances where individuals exhibit tolerance and understanding, particularly in contexts involving repetitive actions, such as interactions with individuals with dementia, within the realm of positive Human-Robot-Interaction with socially assistive robots.</t>
-  </si>
-  <si>
-    <t>Captures instances where individuals emphasize the importance of patience in providing care for individuals with dementia, highlighting the need for tolerance towards repetitive actions.</t>
-  </si>
-  <si>
-    <t>Captures references to the perceived utility of socially assistive robots for individuals with autism or related conditions, highlighting their potential benefits in providing support and assistance.</t>
-  </si>
-  <si>
-    <t>Captures instances where participants express the potential for emotional attachment and companionship with socially assistive robots, highlighting the perceived benefits of forming a close relationship with these machines.</t>
-  </si>
-  <si>
-    <t>Identifies instances where participants express the potential for socially assistive robots to support therapy success, particularly in helping individuals with autism or related disorders.</t>
-  </si>
-  <si>
     <t>Identifies instances where the potential benefits of socially assistive robots are highlighted through the provision of personalized and individualized attention, such as tailoring care to specific needs in settings like nursing homes.</t>
   </si>
   <si>
-    <t>Identifies references to alternative options to traditional pets, particularly for individuals with allergies or limitations in caring for live animals, highlighting the benefits of robotic or virtual companions.</t>
+    <t>Identifies references to alternative options to traditional pets, particularly for individuals with allergies or limitations in caring for live animals, within discussions on the benefits and risks of positive Human-Robot-Interaction with socially assistive robots.</t>
   </si>
   <si>
     <t>Highlights the importance of human-like movements, gestures, and reactions to enhance the realism and comfort of interactions with socially assistive robots.</t>
@@ -859,41 +799,45 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F2"/>
-      <c r="G2"/>
+        <v>164</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="F3" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -901,19 +845,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="F4" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="G4" t="n">
         <v>4.0</v>
@@ -924,16 +868,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
@@ -943,16 +887,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E6" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
@@ -962,45 +906,41 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>182</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.0</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E8" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F8" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
@@ -1008,16 +948,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E9" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F9"/>
       <c r="G9"/>
@@ -1027,35 +967,39 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E10" t="s">
-        <v>185</v>
-      </c>
-      <c r="F10"/>
-      <c r="G10"/>
+        <v>172</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E11" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="F11" t="n">
         <v>6.0</v>
@@ -1069,22 +1013,22 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E12" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="F12" t="n">
-        <v>18.0</v>
+        <v>14.0</v>
       </c>
       <c r="G12" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
@@ -1092,22 +1036,22 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E13" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="F13" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G13" t="n">
         <v>3.0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.0</v>
       </c>
     </row>
     <row r="14">
@@ -1115,22 +1059,22 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E14" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F14" t="n">
         <v>3.0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
@@ -1138,19 +1082,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E15" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="F15" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="G15" t="n">
         <v>5.0</v>
@@ -1161,16 +1105,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F16"/>
       <c r="G16"/>
@@ -1180,19 +1124,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E17" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="F17" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="G17" t="n">
         <v>6.0</v>
@@ -1203,61 +1147,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E18" t="s">
-        <v>193</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.0</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="F18"/>
+      <c r="G18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E19" t="s">
-        <v>194</v>
-      </c>
-      <c r="F19"/>
-      <c r="G19"/>
+        <v>181</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E20" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="F20" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="G20" t="n">
         <v>1.0</v>
@@ -1268,19 +1212,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E21" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="F21" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="G21" t="n">
         <v>1.0</v>
@@ -1291,22 +1235,22 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D22" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E22" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F22" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="23">
@@ -1314,22 +1258,22 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E23" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="F23" t="n">
         <v>5.0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="24">
@@ -1337,22 +1281,22 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E24" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="F24" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="25">
@@ -1360,41 +1304,45 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E25" t="s">
-        <v>200</v>
-      </c>
-      <c r="F25"/>
-      <c r="G25"/>
+        <v>187</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E26" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="F26" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="27">
@@ -1402,22 +1350,22 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E27" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="F27" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="28">
@@ -1425,22 +1373,22 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E28" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="F28" t="n">
-        <v>19.0</v>
+        <v>1.0</v>
       </c>
       <c r="G28" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="29">
@@ -1448,38 +1396,42 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E29" t="s">
-        <v>204</v>
-      </c>
-      <c r="F29"/>
-      <c r="G29"/>
+        <v>191</v>
+      </c>
+      <c r="F29" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D30" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="E30" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="F30" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G30" t="n">
         <v>0.0</v>
@@ -1490,22 +1442,22 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E31" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="F31" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="32">
@@ -1513,22 +1465,22 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D32" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="E32" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="F32" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G32" t="n">
         <v>1.0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.0</v>
       </c>
     </row>
     <row r="33">
@@ -1536,22 +1488,22 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D33" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E33" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="F33" t="n">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="34">
@@ -1559,22 +1511,22 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D34" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E34" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="F34" t="n">
-        <v>11.0</v>
+        <v>28.0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="35">
@@ -1582,19 +1534,19 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D35" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E35" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="F35" t="n">
-        <v>15.0</v>
+        <v>2.0</v>
       </c>
       <c r="G35" t="n">
         <v>0.0</v>
@@ -1605,22 +1557,22 @@
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D36" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E36" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="F36" t="n">
-        <v>13.0</v>
+        <v>5.0</v>
       </c>
       <c r="G36" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="37">
@@ -1628,22 +1580,22 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D37" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E37" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="F37" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="G37" t="n">
         <v>2.0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.0</v>
       </c>
     </row>
     <row r="38">
@@ -1651,45 +1603,41 @@
         <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D38" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E38" t="s">
-        <v>213</v>
-      </c>
-      <c r="F38" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.0</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="F38"/>
+      <c r="G38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D39" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="E39" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="F39" t="n">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
       <c r="G39" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="40">
@@ -1697,22 +1645,22 @@
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D40" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E40" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F40" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G40" t="n">
         <v>1.0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.0</v>
       </c>
     </row>
     <row r="41">
@@ -1720,19 +1668,19 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C41" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D41" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E41" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="F41" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="G41" t="n">
         <v>0.0</v>
@@ -1743,22 +1691,22 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D42" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E42" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="F42" t="n">
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="43">
@@ -1766,41 +1714,45 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D43" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E43" t="s">
-        <v>218</v>
-      </c>
-      <c r="F43"/>
-      <c r="G43"/>
+        <v>205</v>
+      </c>
+      <c r="F43" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
         <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D44" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E44" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="F44" t="n">
-        <v>4.0</v>
+        <v>13.0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="45">
@@ -1808,22 +1760,22 @@
         <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D45" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E45" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="F45" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="46">
@@ -1831,22 +1783,22 @@
         <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C46" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D46" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E46" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="F46" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="47">
@@ -1854,19 +1806,19 @@
         <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C47" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D47" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E47" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="F47" t="n">
-        <v>13.0</v>
+        <v>5.0</v>
       </c>
       <c r="G47" t="n">
         <v>3.0</v>
@@ -1877,22 +1829,22 @@
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C48" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D48" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E48" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="F48" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="G48" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="49">
@@ -1900,45 +1852,41 @@
         <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D49" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E49" t="s">
-        <v>224</v>
-      </c>
-      <c r="F49" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0.0</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="F49"/>
+      <c r="G49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
         <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C50" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D50" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E50" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="F50" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="51">
@@ -1946,22 +1894,22 @@
         <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C51" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D51" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E51" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="F51" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="G51" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="52">
@@ -1969,22 +1917,22 @@
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C52" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D52" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="E52" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="F52" t="n">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
       <c r="G52" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="53">
@@ -1992,22 +1940,22 @@
         <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C53" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D53" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E53" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="F53" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="G53" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="54">
@@ -2015,22 +1963,22 @@
         <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C54" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D54" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="E54" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="F54" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="G54" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="55">
@@ -2038,19 +1986,19 @@
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C55" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D55" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E55" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="F55" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="G55" t="n">
         <v>1.0</v>
@@ -2061,41 +2009,45 @@
         <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C56" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D56" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E56" t="s">
-        <v>231</v>
-      </c>
-      <c r="F56"/>
-      <c r="G56"/>
+        <v>218</v>
+      </c>
+      <c r="F56" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C57" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D57" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E57" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="F57" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="G57" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="58">
@@ -2103,22 +2055,22 @@
         <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C58" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D58" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E58" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="F58" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="G58" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="59">
@@ -2126,42 +2078,38 @@
         <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C59" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D59" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="E59" t="s">
-        <v>234</v>
-      </c>
-      <c r="F59" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>10.0</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="F59"/>
+      <c r="G59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
         <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C60" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D60" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E60" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="F60" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="G60" t="n">
         <v>1.0</v>
@@ -2172,19 +2120,19 @@
         <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C61" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D61" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="E61" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="F61" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="G61" t="n">
         <v>0.0</v>
@@ -2195,22 +2143,22 @@
         <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C62" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D62" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E62" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="F62" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="G62" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="63">
@@ -2218,19 +2166,19 @@
         <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C63" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D63" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E63" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="F63" t="n">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
       <c r="G63" t="n">
         <v>0.0</v>
@@ -2241,22 +2189,22 @@
         <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C64" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D64" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E64" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="F64" t="n">
         <v>3.0</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="65">
@@ -2264,19 +2212,19 @@
         <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C65" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D65" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E65" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="F65" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G65" t="n">
         <v>0.0</v>
@@ -2287,16 +2235,16 @@
         <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C66" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D66" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E66" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="F66" t="n">
         <v>2.0</v>
@@ -2310,19 +2258,19 @@
         <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C67" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D67" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E67" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="F67" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="G67" t="n">
         <v>1.0</v>
@@ -2333,19 +2281,19 @@
         <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C68" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D68" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="E68" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="F68" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="G68" t="n">
         <v>0.0</v>
@@ -2356,19 +2304,19 @@
         <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C69" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D69" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E69" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="F69" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="G69" t="n">
         <v>0.0</v>
@@ -2379,22 +2327,22 @@
         <v>74</v>
       </c>
       <c r="B70" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C70" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D70" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E70" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="F70" t="n">
-        <v>17.0</v>
+        <v>6.0</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="71">
@@ -2402,22 +2350,22 @@
         <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C71" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D71" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E71" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="F71" t="n">
         <v>7.0</v>
       </c>
       <c r="G71" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="72">
@@ -2425,22 +2373,22 @@
         <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C72" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D72" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E72" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="F72" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="73">
@@ -2448,19 +2396,19 @@
         <v>77</v>
       </c>
       <c r="B73" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C73" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D73" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E73" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="F73" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="G73" t="n">
         <v>0.0</v>
@@ -2471,182 +2419,21 @@
         <v>78</v>
       </c>
       <c r="B74" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C74" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D74" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E74" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="F74" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="G74" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>79</v>
-      </c>
-      <c r="B75" t="s">
-        <v>93</v>
-      </c>
-      <c r="C75" t="s">
-        <v>101</v>
-      </c>
-      <c r="D75" t="s">
-        <v>117</v>
-      </c>
-      <c r="E75" t="s">
-        <v>250</v>
-      </c>
-      <c r="F75" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>80</v>
-      </c>
-      <c r="B76" t="s">
-        <v>93</v>
-      </c>
-      <c r="C76" t="s">
-        <v>101</v>
-      </c>
-      <c r="D76" t="s">
-        <v>171</v>
-      </c>
-      <c r="E76" t="s">
-        <v>251</v>
-      </c>
-      <c r="F76" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>81</v>
-      </c>
-      <c r="B77" t="s">
-        <v>93</v>
-      </c>
-      <c r="C77" t="s">
-        <v>101</v>
-      </c>
-      <c r="D77" t="s">
-        <v>172</v>
-      </c>
-      <c r="E77" t="s">
-        <v>252</v>
-      </c>
-      <c r="F77" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="G77" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>82</v>
-      </c>
-      <c r="B78" t="s">
-        <v>93</v>
-      </c>
-      <c r="C78" t="s">
-        <v>101</v>
-      </c>
-      <c r="D78" t="s">
-        <v>173</v>
-      </c>
-      <c r="E78" t="s">
-        <v>253</v>
-      </c>
-      <c r="F78" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>83</v>
-      </c>
-      <c r="B79" t="s">
-        <v>93</v>
-      </c>
-      <c r="C79" t="s">
-        <v>101</v>
-      </c>
-      <c r="D79" t="s">
-        <v>174</v>
-      </c>
-      <c r="E79" t="s">
-        <v>254</v>
-      </c>
-      <c r="F79" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="G79" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>84</v>
-      </c>
-      <c r="B80" t="s">
-        <v>93</v>
-      </c>
-      <c r="C80" t="s">
-        <v>101</v>
-      </c>
-      <c r="D80" t="s">
-        <v>175</v>
-      </c>
-      <c r="E80" t="s">
-        <v>255</v>
-      </c>
-      <c r="F80" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>85</v>
-      </c>
-      <c r="B81" t="s">
-        <v>93</v>
-      </c>
-      <c r="C81" t="s">
-        <v>101</v>
-      </c>
-      <c r="D81" t="s">
-        <v>176</v>
-      </c>
-      <c r="E81" t="s">
-        <v>256</v>
-      </c>
-      <c r="F81" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G81" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/Analyses/main study - LLM/create tables, graphics G3/outputs/SAR_codes_complete.xlsx
+++ b/Analyses/main study - LLM/create tables, graphics G3/outputs/SAR_codes_complete.xlsx
@@ -438,9 +438,6 @@
           <t>Captures references to the intricate and multifaceted nature of human interaction, suggesting skepticism towards the feasibility of mechanical or life-like substitutes.</t>
         </is>
       </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
       <c r="F3">
         <v>1</v>
       </c>
@@ -467,10 +464,10 @@
         </is>
       </c>
       <c r="E4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -538,6 +535,9 @@
           <t>Identifies instances in the data where individuals describe actions involving unauthorized access or coercion to influence behavior, raising concerns about manipulation rather than assistance.</t>
         </is>
       </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -560,11 +560,8 @@
           <t>Captures instances where participants express the disruption or strain on emotional connections when the socially assistive robot malfunctions or ceases to function.</t>
         </is>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
       <c r="F8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -588,6 +585,9 @@
           <t>Captures concerns about the potential psychological harm caused by over-anthropomorphizing robots, particularly when emotional bonds are formed that could break due to malfunctions or manipulative use.</t>
         </is>
       </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="E12">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -695,10 +695,10 @@
         </is>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -722,11 +722,8 @@
           <t>Identifies instances where participants describe active involvement or interaction with socially assistive robots, emphasizing how prompt responses and interactive features foster connection and engagement.</t>
         </is>
       </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
       <c r="F14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -751,10 +748,10 @@
         </is>
       </c>
       <c r="E15">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -778,6 +775,12 @@
           <t>Captures instances where participants express the ease of forming a relational connection with socially assistive robots, highlighting the role of design elements, like soft materials, in facilitating human-robot bonds.</t>
         </is>
       </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -801,10 +804,10 @@
         </is>
       </c>
       <c r="E17">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -851,7 +854,7 @@
         </is>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -882,7 +885,7 @@
         <v>5</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -907,10 +910,10 @@
         </is>
       </c>
       <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
         <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -935,10 +938,10 @@
         </is>
       </c>
       <c r="E22">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -966,7 +969,7 @@
         <v>5</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -990,9 +993,6 @@
           <t>Denotes references to the necessity for both staff and clients to possess the necessary skills and knowledge to effectively interact with socially assistive robots in the context of perceived negative Human-Robot-Interaction risks and benefits.</t>
         </is>
       </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
       <c r="F24">
         <v>1</v>
       </c>
@@ -1018,11 +1018,8 @@
           <t>Captures instances where older individuals express skepticism or resistance towards adopting new technologies, particularly in the context of socially assistive robots and human-robot interaction.</t>
         </is>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
       <c r="F25">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -1047,10 +1044,10 @@
         </is>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1075,10 +1072,10 @@
         </is>
       </c>
       <c r="E27">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F27">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -1102,11 +1099,8 @@
           <t>Identifies instances where participants discuss the importance of possessing technical knowledge for effectively operating socially assistive robots, including addressing communication barriers to ensure smooth interactions.</t>
         </is>
       </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
       <c r="F28">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -1131,10 +1125,10 @@
         </is>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -1158,11 +1152,8 @@
           <t>Identifies instances where participants express concerns about the unethical practice of simulating human interaction with socially assistive robots, potentially leading to misunderstandings or misperceptions.</t>
         </is>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1187,10 +1178,10 @@
         </is>
       </c>
       <c r="E31">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
@@ -1215,10 +1206,10 @@
         </is>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -1242,11 +1233,8 @@
           <t>Identifies instances where participants highlight the positive impact of socially assistive robots in assuming degrading tasks, enhancing efficiency and quality of life. Additionally, this includes their role in improving attention and supporting individuals with depression.</t>
         </is>
       </c>
-      <c r="E33">
-        <v>15</v>
-      </c>
       <c r="F33">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34">
@@ -1271,10 +1259,10 @@
         </is>
       </c>
       <c r="E34">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F34">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35">
@@ -1298,11 +1286,8 @@
           <t>Identifies references to engaging in activities or practices aimed at maintaining cognitive health and function, potentially related to the perceived positive Human-Robot-Interaction of socially assistive robots.</t>
         </is>
       </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
       <c r="F35">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -1327,10 +1312,10 @@
         </is>
       </c>
       <c r="E36">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F36">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -1355,10 +1340,10 @@
         </is>
       </c>
       <c r="E37">
+        <v>19</v>
+      </c>
+      <c r="F37">
         <v>16</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -1382,6 +1367,12 @@
           <t>Captures instances where participants express appreciation for tactile interactions and the incorporation of materials like fur to enhance acceptance in Human-Robot-Interaction, highlighting the positive evaluation of lifelike features in soft, socially assistive robots.</t>
         </is>
       </c>
+      <c r="E38">
+        <v>6</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1404,11 +1395,8 @@
           <t>Captures instances where individuals exhibit tolerance and understanding, particularly in contexts involving repetitive actions, such as interactions with individuals with dementia, within the realm of positive Human-Robot-Interaction with socially assistive robots.</t>
         </is>
       </c>
-      <c r="E39">
-        <v>2</v>
-      </c>
       <c r="F39">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -1432,11 +1420,8 @@
           <t>Captures instances where individuals emphasize the importance of patience in providing care for individuals with dementia, highlighting the need for tolerance towards repetitive actions.</t>
         </is>
       </c>
-      <c r="E40">
-        <v>6</v>
-      </c>
       <c r="F40">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -1461,10 +1446,10 @@
         </is>
       </c>
       <c r="E41">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
@@ -1489,10 +1474,10 @@
         </is>
       </c>
       <c r="E42">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
@@ -1516,11 +1501,8 @@
           <t>Identifies references to alternative options to traditional pets, particularly for individuals with allergies or limitations in caring for live animals, within discussions on the benefits and risks of positive Human-Robot-Interaction with socially assistive robots.</t>
         </is>
       </c>
-      <c r="E43">
-        <v>6</v>
-      </c>
       <c r="F43">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -1545,7 +1527,7 @@
         </is>
       </c>
       <c r="E44">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F44">
         <v>5</v>
@@ -1573,10 +1555,10 @@
         </is>
       </c>
       <c r="E45">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F45">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -1601,10 +1583,10 @@
         </is>
       </c>
       <c r="E46">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F46">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
@@ -1629,10 +1611,10 @@
         </is>
       </c>
       <c r="E47">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F47">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1656,11 +1638,8 @@
           <t>Identifies concerns regarding the potential for data breaches, loss, or misuse when interacting with socially assistive robots, highlighting perceived risks to privacy and security.</t>
         </is>
       </c>
-      <c r="E48">
-        <v>7</v>
-      </c>
       <c r="F48">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
@@ -1684,6 +1663,9 @@
           <t>Identifies concerns about how external factors, such as power outages, extreme temperatures, or unsuitable environments, could impair robot functionality and compromise safety or reliability.</t>
         </is>
       </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1707,10 +1689,10 @@
         </is>
       </c>
       <c r="E50">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
@@ -1735,10 +1717,10 @@
         </is>
       </c>
       <c r="E51">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F51">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -1763,10 +1745,10 @@
         </is>
       </c>
       <c r="E52">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F52">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -1791,10 +1773,10 @@
         </is>
       </c>
       <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="F53">
         <v>2</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -1818,11 +1800,8 @@
           <t>Identifies concerns related to the potential negative outcomes or issues that may arise from interactions between humans and socially assistive robots, highlighting the importance of ensuring safe and beneficial interactions in the context of technological limitations. This includes the possibility that robots might have limited interaction capabilities due to technological limitations.</t>
         </is>
       </c>
-      <c r="E54">
-        <v>4</v>
-      </c>
       <c r="F54">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -1847,10 +1826,10 @@
         </is>
       </c>
       <c r="E55">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56">
@@ -1875,10 +1854,10 @@
         </is>
       </c>
       <c r="E56">
+        <v>15</v>
+      </c>
+      <c r="F56">
         <v>14</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1902,11 +1881,8 @@
           <t>Identifies instances where participants express concerns about socially assistive robots' inability to comprehend regional or individual speech patterns, including challenges faced by individuals with age-related communication difficulties.</t>
         </is>
       </c>
-      <c r="E57">
-        <v>2</v>
-      </c>
       <c r="F57">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
@@ -1930,11 +1906,8 @@
           <t>Identifies instances where participants express skepticism about the current capabilities of socially assistive robots in understanding and mimicking human emotions.</t>
         </is>
       </c>
-      <c r="E58">
-        <v>3</v>
-      </c>
       <c r="F58">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
@@ -1958,6 +1931,9 @@
           <t>Identifies concerns about the robot's inability to handle spontaneous or unexpected situations that it hasn't been specifically trained for.</t>
         </is>
       </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1981,10 +1957,10 @@
         </is>
       </c>
       <c r="E60">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
@@ -2008,11 +1984,8 @@
           <t>Identifies instances where participants highlight the positive impact of technological advancements in medical diagnosis within the discourse on socially assistive robots.</t>
         </is>
       </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
       <c r="F61">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -2036,11 +2009,8 @@
           <t>Identifies instances where participants highlight the potential for socially assistive robots to be versatile and function effectively across various environments or contexts, making them more beneficial in diverse settings.</t>
         </is>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>8</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2064,11 +2034,8 @@
           <t>Captures references to the accessibility and presence of socially assistive robots beyond standard operating hours in the context of discussing the benefits and risks of their technological capabilities.</t>
         </is>
       </c>
-      <c r="E63">
-        <v>16</v>
-      </c>
       <c r="F63">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64">
@@ -2093,10 +2060,10 @@
         </is>
       </c>
       <c r="E64">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65">
@@ -2112,7 +2079,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Rapid Advancement/Training</t>
+          <t>Rapid Advancement and Training</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2120,11 +2087,8 @@
           <t>Identifies instances where participants highlight the ability of socially assistive robots to quickly impart new information or skills through advanced training methods.</t>
         </is>
       </c>
-      <c r="E65">
-        <v>6</v>
-      </c>
       <c r="F65">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66">
@@ -2148,11 +2112,8 @@
           <t>Identifies instances where participants discuss the potential for robots to take over routine tasks traditionally performed by specialists, aiming to alleviate their workload and enhance efficiency in the context of socially assistive robots.</t>
         </is>
       </c>
-      <c r="E66">
-        <v>2</v>
-      </c>
       <c r="F66">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
@@ -2177,10 +2138,10 @@
         </is>
       </c>
       <c r="E67">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68">
@@ -2204,11 +2165,8 @@
           <t>Identifies instances where socially assistive robots are discussed as potential substitutes for emotional support, particularly in therapeutic settings.</t>
         </is>
       </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
       <c r="F68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -2232,11 +2190,8 @@
           <t>Captures instances where participants highlight the potential of data storage in socially assistive robots to store diverse knowledge beyond human limitations.</t>
         </is>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>2</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2261,10 +2216,10 @@
         </is>
       </c>
       <c r="E70">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -2288,11 +2243,8 @@
           <t>Identifies instances where participants highlight the efficiency gained by using socially assistive robots to save time in caregiving tasks, potentially reducing the time spent on direct care provision.</t>
         </is>
       </c>
-      <c r="E71">
-        <v>7</v>
-      </c>
       <c r="F71">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72">
@@ -2317,10 +2269,10 @@
         </is>
       </c>
       <c r="E72">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F72">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
@@ -2344,11 +2296,8 @@
           <t>Identifies instances where the importance of incorporating advanced technology into healthcare settings for improved patient care and outcomes is emphasized.</t>
         </is>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>5</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2372,11 +2321,8 @@
           <t>Identifies instances where robots are capable of understanding and communicating in multiple languages, highlighting their potential to overcome language barriers in various contexts.</t>
         </is>
       </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
       <c r="F74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Analyses/main study - LLM/create tables, graphics G3/outputs/SAR_codes_complete.xlsx
+++ b/Analyses/main study - LLM/create tables, graphics G3/outputs/SAR_codes_complete.xlsx
@@ -411,7 +411,7 @@
         </is>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -438,6 +438,9 @@
           <t>Captures references to the intricate and multifaceted nature of human interaction, suggesting skepticism towards the feasibility of mechanical or life-like substitutes.</t>
         </is>
       </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
       <c r="F3">
         <v>1</v>
       </c>
@@ -464,7 +467,7 @@
         </is>
       </c>
       <c r="E4">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F4">
         <v>9</v>
@@ -535,6 +538,9 @@
           <t>Identifies instances in the data where individuals describe actions involving unauthorized access or coercion to influence behavior, raising concerns about manipulation rather than assistance.</t>
         </is>
       </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
       <c r="F7">
         <v>1</v>
       </c>
@@ -560,6 +566,9 @@
           <t>Captures instances where participants express the disruption or strain on emotional connections when the socially assistive robot malfunctions or ceases to function.</t>
         </is>
       </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
       <c r="F8">
         <v>2</v>
       </c>
@@ -585,6 +594,9 @@
           <t>Captures concerns about the potential psychological harm caused by over-anthropomorphizing robots, particularly when emotional bonds are formed that could break due to malfunctions or manipulative use.</t>
         </is>
       </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
       <c r="F9">
         <v>1</v>
       </c>
@@ -611,7 +623,7 @@
         </is>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -639,7 +651,7 @@
         </is>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -667,7 +679,7 @@
         </is>
       </c>
       <c r="E12">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F12">
         <v>12</v>
@@ -695,7 +707,7 @@
         </is>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -722,6 +734,9 @@
           <t>Identifies instances where participants describe active involvement or interaction with socially assistive robots, emphasizing how prompt responses and interactive features foster connection and engagement.</t>
         </is>
       </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
       <c r="F14">
         <v>1</v>
       </c>
@@ -748,7 +763,7 @@
         </is>
       </c>
       <c r="E15">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F15">
         <v>4</v>
@@ -776,7 +791,7 @@
         </is>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -804,7 +819,7 @@
         </is>
       </c>
       <c r="E17">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -854,7 +869,7 @@
         </is>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -882,7 +897,7 @@
         </is>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -910,7 +925,7 @@
         </is>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>3</v>
@@ -938,7 +953,7 @@
         </is>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -966,7 +981,7 @@
         </is>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>4</v>
@@ -993,6 +1008,9 @@
           <t>Denotes references to the necessity for both staff and clients to possess the necessary skills and knowledge to effectively interact with socially assistive robots in the context of perceived negative Human-Robot-Interaction risks and benefits.</t>
         </is>
       </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
       <c r="F24">
         <v>1</v>
       </c>
@@ -1018,6 +1036,9 @@
           <t>Captures instances where older individuals express skepticism or resistance towards adopting new technologies, particularly in the context of socially assistive robots and human-robot interaction.</t>
         </is>
       </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
       <c r="F25">
         <v>4</v>
       </c>
@@ -1044,7 +1065,7 @@
         </is>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -1072,7 +1093,7 @@
         </is>
       </c>
       <c r="E27">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F27">
         <v>6</v>
@@ -1099,6 +1120,9 @@
           <t>Identifies instances where participants discuss the importance of possessing technical knowledge for effectively operating socially assistive robots, including addressing communication barriers to ensure smooth interactions.</t>
         </is>
       </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
       <c r="F28">
         <v>5</v>
       </c>
@@ -1125,7 +1149,7 @@
         </is>
       </c>
       <c r="E29">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>4</v>
@@ -1152,6 +1176,9 @@
           <t>Identifies instances where participants express concerns about the unethical practice of simulating human interaction with socially assistive robots, potentially leading to misunderstandings or misperceptions.</t>
         </is>
       </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
       <c r="F30">
         <v>1</v>
       </c>
@@ -1178,7 +1205,7 @@
         </is>
       </c>
       <c r="E31">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>13</v>
@@ -1206,7 +1233,7 @@
         </is>
       </c>
       <c r="E32">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>7</v>
@@ -1233,6 +1260,9 @@
           <t>Identifies instances where participants highlight the positive impact of socially assistive robots in assuming degrading tasks, enhancing efficiency and quality of life. Additionally, this includes their role in improving attention and supporting individuals with depression.</t>
         </is>
       </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
       <c r="F33">
         <v>17</v>
       </c>
@@ -1259,7 +1289,7 @@
         </is>
       </c>
       <c r="E34">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="F34">
         <v>23</v>
@@ -1286,6 +1316,9 @@
           <t>Identifies references to engaging in activities or practices aimed at maintaining cognitive health and function, potentially related to the perceived positive Human-Robot-Interaction of socially assistive robots.</t>
         </is>
       </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
       <c r="F35">
         <v>4</v>
       </c>
@@ -1312,7 +1345,7 @@
         </is>
       </c>
       <c r="E36">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>4</v>
@@ -1340,7 +1373,7 @@
         </is>
       </c>
       <c r="E37">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>16</v>
@@ -1368,7 +1401,7 @@
         </is>
       </c>
       <c r="E38">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F38">
         <v>2</v>
@@ -1395,6 +1428,9 @@
           <t>Captures instances where individuals exhibit tolerance and understanding, particularly in contexts involving repetitive actions, such as interactions with individuals with dementia, within the realm of positive Human-Robot-Interaction with socially assistive robots.</t>
         </is>
       </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
       <c r="F39">
         <v>6</v>
       </c>
@@ -1420,6 +1456,9 @@
           <t>Captures instances where individuals emphasize the importance of patience in providing care for individuals with dementia, highlighting the need for tolerance towards repetitive actions.</t>
         </is>
       </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
       <c r="F40">
         <v>5</v>
       </c>
@@ -1446,7 +1485,7 @@
         </is>
       </c>
       <c r="E41">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F41">
         <v>6</v>
@@ -1474,7 +1513,7 @@
         </is>
       </c>
       <c r="E42">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F42">
         <v>9</v>
@@ -1501,6 +1540,9 @@
           <t>Identifies references to alternative options to traditional pets, particularly for individuals with allergies or limitations in caring for live animals, within discussions on the benefits and risks of positive Human-Robot-Interaction with socially assistive robots.</t>
         </is>
       </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
       <c r="F43">
         <v>4</v>
       </c>
@@ -1527,7 +1569,7 @@
         </is>
       </c>
       <c r="E44">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F44">
         <v>5</v>
@@ -1555,7 +1597,7 @@
         </is>
       </c>
       <c r="E45">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F45">
         <v>5</v>
@@ -1583,7 +1625,7 @@
         </is>
       </c>
       <c r="E46">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F46">
         <v>7</v>
@@ -1611,7 +1653,7 @@
         </is>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -1638,6 +1680,9 @@
           <t>Identifies concerns regarding the potential for data breaches, loss, or misuse when interacting with socially assistive robots, highlighting perceived risks to privacy and security.</t>
         </is>
       </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
       <c r="F48">
         <v>6</v>
       </c>
@@ -1663,6 +1708,9 @@
           <t>Identifies concerns about how external factors, such as power outages, extreme temperatures, or unsuitable environments, could impair robot functionality and compromise safety or reliability.</t>
         </is>
       </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
       <c r="F49">
         <v>1</v>
       </c>
@@ -1689,7 +1737,7 @@
         </is>
       </c>
       <c r="E50">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F50">
         <v>5</v>
@@ -1717,7 +1765,7 @@
         </is>
       </c>
       <c r="E51">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F51">
         <v>3</v>
@@ -1745,7 +1793,7 @@
         </is>
       </c>
       <c r="E52">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F52">
         <v>4</v>
@@ -1773,7 +1821,7 @@
         </is>
       </c>
       <c r="E53">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F53">
         <v>2</v>
@@ -1800,6 +1848,9 @@
           <t>Identifies concerns related to the potential negative outcomes or issues that may arise from interactions between humans and socially assistive robots, highlighting the importance of ensuring safe and beneficial interactions in the context of technological limitations. This includes the possibility that robots might have limited interaction capabilities due to technological limitations.</t>
         </is>
       </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
       <c r="F54">
         <v>3</v>
       </c>
@@ -1826,7 +1877,7 @@
         </is>
       </c>
       <c r="E55">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F55">
         <v>11</v>
@@ -1854,7 +1905,7 @@
         </is>
       </c>
       <c r="E56">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F56">
         <v>14</v>
@@ -1881,6 +1932,9 @@
           <t>Identifies instances where participants express concerns about socially assistive robots' inability to comprehend regional or individual speech patterns, including challenges faced by individuals with age-related communication difficulties.</t>
         </is>
       </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
       <c r="F57">
         <v>3</v>
       </c>
@@ -1906,6 +1960,9 @@
           <t>Identifies instances where participants express skepticism about the current capabilities of socially assistive robots in understanding and mimicking human emotions.</t>
         </is>
       </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
       <c r="F58">
         <v>5</v>
       </c>
@@ -1931,6 +1988,9 @@
           <t>Identifies concerns about the robot's inability to handle spontaneous or unexpected situations that it hasn't been specifically trained for.</t>
         </is>
       </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
       <c r="F59">
         <v>2</v>
       </c>
@@ -1957,7 +2017,7 @@
         </is>
       </c>
       <c r="E60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F60">
         <v>4</v>
@@ -1984,6 +2044,9 @@
           <t>Identifies instances where participants highlight the positive impact of technological advancements in medical diagnosis within the discourse on socially assistive robots.</t>
         </is>
       </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
       <c r="F61">
         <v>3</v>
       </c>
@@ -2009,6 +2072,9 @@
           <t>Identifies instances where participants highlight the potential for socially assistive robots to be versatile and function effectively across various environments or contexts, making them more beneficial in diverse settings.</t>
         </is>
       </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
       <c r="F62">
         <v>8</v>
       </c>
@@ -2034,6 +2100,9 @@
           <t>Captures references to the accessibility and presence of socially assistive robots beyond standard operating hours in the context of discussing the benefits and risks of their technological capabilities.</t>
         </is>
       </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
       <c r="F63">
         <v>17</v>
       </c>
@@ -2060,7 +2129,7 @@
         </is>
       </c>
       <c r="E64">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F64">
         <v>7</v>
@@ -2087,6 +2156,9 @@
           <t>Identifies instances where participants highlight the ability of socially assistive robots to quickly impart new information or skills through advanced training methods.</t>
         </is>
       </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
       <c r="F65">
         <v>5</v>
       </c>
@@ -2112,6 +2184,9 @@
           <t>Identifies instances where participants discuss the potential for robots to take over routine tasks traditionally performed by specialists, aiming to alleviate their workload and enhance efficiency in the context of socially assistive robots.</t>
         </is>
       </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
       <c r="F66">
         <v>3</v>
       </c>
@@ -2138,7 +2213,7 @@
         </is>
       </c>
       <c r="E67">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F67">
         <v>6</v>
@@ -2165,6 +2240,9 @@
           <t>Identifies instances where socially assistive robots are discussed as potential substitutes for emotional support, particularly in therapeutic settings.</t>
         </is>
       </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
       <c r="F68">
         <v>2</v>
       </c>
@@ -2190,6 +2268,9 @@
           <t>Captures instances where participants highlight the potential of data storage in socially assistive robots to store diverse knowledge beyond human limitations.</t>
         </is>
       </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
       <c r="F69">
         <v>2</v>
       </c>
@@ -2216,7 +2297,7 @@
         </is>
       </c>
       <c r="E70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F70">
         <v>2</v>
@@ -2243,6 +2324,9 @@
           <t>Identifies instances where participants highlight the efficiency gained by using socially assistive robots to save time in caregiving tasks, potentially reducing the time spent on direct care provision.</t>
         </is>
       </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
       <c r="F71">
         <v>10</v>
       </c>
@@ -2269,7 +2353,7 @@
         </is>
       </c>
       <c r="E72">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F72">
         <v>6</v>
@@ -2296,6 +2380,9 @@
           <t>Identifies instances where the importance of incorporating advanced technology into healthcare settings for improved patient care and outcomes is emphasized.</t>
         </is>
       </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
       <c r="F73">
         <v>5</v>
       </c>
@@ -2320,6 +2407,9 @@
         <is>
           <t>Identifies instances where robots are capable of understanding and communicating in multiple languages, highlighting their potential to overcome language barriers in various contexts.</t>
         </is>
+      </c>
+      <c r="E74">
+        <v>0</v>
       </c>
       <c r="F74">
         <v>2</v>

--- a/Analyses/main study - LLM/create tables, graphics G3/outputs/SAR_codes_complete.xlsx
+++ b/Analyses/main study - LLM/create tables, graphics G3/outputs/SAR_codes_complete.xlsx
@@ -380,12 +380,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>rigid</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>soft</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>rigid</t>
         </is>
       </c>
     </row>
@@ -439,10 +439,10 @@
         </is>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="F4">
         <v>4</v>
-      </c>
-      <c r="F4">
-        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -539,10 +539,10 @@
         </is>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -567,10 +567,10 @@
         </is>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -623,10 +623,10 @@
         </is>
       </c>
       <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>2</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -651,10 +651,10 @@
         </is>
       </c>
       <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
         <v>1</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -679,10 +679,10 @@
         </is>
       </c>
       <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12">
         <v>4</v>
-      </c>
-      <c r="F12">
-        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -763,10 +763,10 @@
         </is>
       </c>
       <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
         <v>8</v>
-      </c>
-      <c r="F15">
-        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -791,10 +791,10 @@
         </is>
       </c>
       <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
         <v>3</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -869,10 +869,10 @@
         </is>
       </c>
       <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
         <v>2</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -897,10 +897,10 @@
         </is>
       </c>
       <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
         <v>1</v>
-      </c>
-      <c r="F20">
-        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -925,10 +925,10 @@
         </is>
       </c>
       <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
         <v>1</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -981,10 +981,10 @@
         </is>
       </c>
       <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
         <v>1</v>
-      </c>
-      <c r="F23">
-        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1009,10 +1009,10 @@
         </is>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1037,10 +1037,10 @@
         </is>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1093,10 +1093,10 @@
         </is>
       </c>
       <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27">
         <v>8</v>
-      </c>
-      <c r="F27">
-        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -1121,10 +1121,10 @@
         </is>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F28">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
         <v>3</v>
-      </c>
-      <c r="F29">
-        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -1177,10 +1177,10 @@
         </is>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1205,10 +1205,10 @@
         </is>
       </c>
       <c r="E31">
+        <v>13</v>
+      </c>
+      <c r="F31">
         <v>3</v>
-      </c>
-      <c r="F31">
-        <v>13</v>
       </c>
     </row>
     <row r="32">
@@ -1233,10 +1233,10 @@
         </is>
       </c>
       <c r="E32">
+        <v>7</v>
+      </c>
+      <c r="F32">
         <v>3</v>
-      </c>
-      <c r="F32">
-        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -1261,10 +1261,10 @@
         </is>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F33">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="E34">
+        <v>23</v>
+      </c>
+      <c r="F34">
         <v>6</v>
-      </c>
-      <c r="F34">
-        <v>23</v>
       </c>
     </row>
     <row r="35">
@@ -1317,10 +1317,10 @@
         </is>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F35">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1345,10 +1345,10 @@
         </is>
       </c>
       <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36">
         <v>3</v>
-      </c>
-      <c r="F36">
-        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -1373,10 +1373,10 @@
         </is>
       </c>
       <c r="E37">
+        <v>16</v>
+      </c>
+      <c r="F37">
         <v>3</v>
-      </c>
-      <c r="F37">
-        <v>16</v>
       </c>
     </row>
     <row r="38">
@@ -1401,10 +1401,10 @@
         </is>
       </c>
       <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
         <v>4</v>
-      </c>
-      <c r="F38">
-        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -1429,10 +1429,10 @@
         </is>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F39">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1457,10 +1457,10 @@
         </is>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F40">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1485,10 +1485,10 @@
         </is>
       </c>
       <c r="E41">
+        <v>6</v>
+      </c>
+      <c r="F41">
         <v>1</v>
-      </c>
-      <c r="F41">
-        <v>6</v>
       </c>
     </row>
     <row r="42">
@@ -1513,10 +1513,10 @@
         </is>
       </c>
       <c r="E42">
+        <v>9</v>
+      </c>
+      <c r="F42">
         <v>1</v>
-      </c>
-      <c r="F42">
-        <v>9</v>
       </c>
     </row>
     <row r="43">
@@ -1541,10 +1541,10 @@
         </is>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1569,10 +1569,10 @@
         </is>
       </c>
       <c r="E44">
+        <v>5</v>
+      </c>
+      <c r="F44">
         <v>4</v>
-      </c>
-      <c r="F44">
-        <v>5</v>
       </c>
     </row>
     <row r="45">
@@ -1625,10 +1625,10 @@
         </is>
       </c>
       <c r="E46">
+        <v>7</v>
+      </c>
+      <c r="F46">
         <v>3</v>
-      </c>
-      <c r="F46">
-        <v>7</v>
       </c>
     </row>
     <row r="47">
@@ -1681,10 +1681,10 @@
         </is>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F48">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1709,10 +1709,10 @@
         </is>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1737,10 +1737,10 @@
         </is>
       </c>
       <c r="E50">
+        <v>5</v>
+      </c>
+      <c r="F50">
         <v>2</v>
-      </c>
-      <c r="F50">
-        <v>5</v>
       </c>
     </row>
     <row r="51">
@@ -1765,10 +1765,10 @@
         </is>
       </c>
       <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51">
         <v>4</v>
-      </c>
-      <c r="F51">
-        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -1793,10 +1793,10 @@
         </is>
       </c>
       <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="F52">
         <v>10</v>
-      </c>
-      <c r="F52">
-        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -1821,10 +1821,10 @@
         </is>
       </c>
       <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
         <v>3</v>
-      </c>
-      <c r="F53">
-        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -1849,10 +1849,10 @@
         </is>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F54">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1877,10 +1877,10 @@
         </is>
       </c>
       <c r="E55">
+        <v>11</v>
+      </c>
+      <c r="F55">
         <v>1</v>
-      </c>
-      <c r="F55">
-        <v>11</v>
       </c>
     </row>
     <row r="56">
@@ -1905,10 +1905,10 @@
         </is>
       </c>
       <c r="E56">
+        <v>14</v>
+      </c>
+      <c r="F56">
         <v>1</v>
-      </c>
-      <c r="F56">
-        <v>14</v>
       </c>
     </row>
     <row r="57">
@@ -1933,10 +1933,10 @@
         </is>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F57">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1961,10 +1961,10 @@
         </is>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F58">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1989,10 +1989,10 @@
         </is>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="E60">
+        <v>4</v>
+      </c>
+      <c r="F60">
         <v>1</v>
-      </c>
-      <c r="F60">
-        <v>4</v>
       </c>
     </row>
     <row r="61">
@@ -2045,10 +2045,10 @@
         </is>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F61">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F62">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2101,10 +2101,10 @@
         </is>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F63">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2129,10 +2129,10 @@
         </is>
       </c>
       <c r="E64">
+        <v>7</v>
+      </c>
+      <c r="F64">
         <v>1</v>
-      </c>
-      <c r="F64">
-        <v>7</v>
       </c>
     </row>
     <row r="65">
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F65">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2185,10 +2185,10 @@
         </is>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F66">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2213,10 +2213,10 @@
         </is>
       </c>
       <c r="E67">
+        <v>6</v>
+      </c>
+      <c r="F67">
         <v>1</v>
-      </c>
-      <c r="F67">
-        <v>6</v>
       </c>
     </row>
     <row r="68">
@@ -2241,10 +2241,10 @@
         </is>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2269,10 +2269,10 @@
         </is>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2297,10 +2297,10 @@
         </is>
       </c>
       <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70">
         <v>1</v>
-      </c>
-      <c r="F70">
-        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -2325,10 +2325,10 @@
         </is>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F71">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2353,10 +2353,10 @@
         </is>
       </c>
       <c r="E72">
+        <v>6</v>
+      </c>
+      <c r="F72">
         <v>2</v>
-      </c>
-      <c r="F72">
-        <v>6</v>
       </c>
     </row>
     <row r="73">
@@ -2381,10 +2381,10 @@
         </is>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F73">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2409,10 +2409,10 @@
         </is>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
